--- a/Demo/BE_quant_AtoG_pos6.xlsx
+++ b/Demo/BE_quant_AtoG_pos6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>AACCTCCTTAGTCTA</t>
   </si>
@@ -136,12 +136,6 @@
     <t>cAg</t>
   </si>
   <si>
-    <t>GGAAGACCTGATACC</t>
-  </si>
-  <si>
-    <t>aAg</t>
-  </si>
-  <si>
     <t>GGATTGACTATTCAG</t>
   </si>
   <si>
@@ -188,12 +182,6 @@
   </si>
   <si>
     <t>aAt</t>
-  </si>
-  <si>
-    <t>TCTTTAATCCAGATA</t>
-  </si>
-  <si>
-    <t>gAg</t>
   </si>
   <si>
     <t>TGAAGTGATCTCAGT</t>
@@ -569,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.04961723844627</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -594,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.018779342723</v>
+        <v>0.0337723741979</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -608,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.02868499774617</v>
+        <v>0.00667779632721202</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -622,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.01006745192791</v>
+        <v>0.01794043774668</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -636,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.07710100231303001</v>
+        <v>0.06759040216289</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -650,7 +638,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1.2143611404435</v>
+        <v>0.01387347391786</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -664,7 +652,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.0426912568306</v>
+        <v>0.04750593824228</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -678,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01146745155001</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -692,7 +680,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.01047668936616</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -706,7 +694,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06631927996210001</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -720,7 +708,7 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>0.10617490919251</v>
+        <v>4.377028148818949</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -734,7 +722,7 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.04547004660679</v>
+        <v>0.01240233163834</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -748,7 +736,7 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>0.00728279076542131</v>
+        <v>0.1131221719457</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -762,7 +750,7 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>0.0405811216622</v>
+        <v>0.0204081632653</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -804,7 +792,7 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>0.01063207697623</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -818,7 +806,7 @@
         <v>36</v>
       </c>
       <c r="B18">
-        <v>0.0430001842865</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -832,7 +820,7 @@
         <v>38</v>
       </c>
       <c r="B19">
-        <v>0.15</v>
+        <v>0.01710132535271</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -860,10 +848,10 @@
         <v>42</v>
       </c>
       <c r="B21">
-        <v>0.05234231876472</v>
+        <v>0.009463423866754991</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
@@ -874,7 +862,7 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.03009510051763</v>
+        <v>0.01688903901368</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -888,10 +876,10 @@
         <v>46</v>
       </c>
       <c r="B23">
-        <v>0.0323572237502</v>
+        <v>0.0262559075792</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
         <v>47</v>
@@ -902,7 +890,7 @@
         <v>48</v>
       </c>
       <c r="B24">
-        <v>0.06704864074119</v>
+        <v>0.01785395465095</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -916,10 +904,10 @@
         <v>50</v>
       </c>
       <c r="B25">
-        <v>0.06706458319361</v>
+        <v>0.1360544217687</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>51</v>
@@ -930,7 +918,7 @@
         <v>52</v>
       </c>
       <c r="B26">
-        <v>0.03964163957821</v>
+        <v>0.02965599051008</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -944,10 +932,10 @@
         <v>54</v>
       </c>
       <c r="B27">
-        <v>0.03537475127128</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>55</v>
@@ -958,7 +946,7 @@
         <v>56</v>
       </c>
       <c r="B28">
-        <v>0.01436368859523</v>
+        <v>0.02645502645502</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -972,7 +960,7 @@
         <v>58</v>
       </c>
       <c r="B29">
-        <v>0.07839623698062</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -986,41 +974,13 @@
         <v>60</v>
       </c>
       <c r="B30">
-        <v>0.11277424646298</v>
+        <v>0.006619009796134498</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31">
-        <v>0.06085038411804</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
